--- a/RinominaPdf/rinomina.xlsx
+++ b/RinominaPdf/rinomina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Haider Maqsood\Desktop\Software\RinominaPdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7E298-C68D-4ADB-B674-AAB0112F159F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2405B-E153-4B32-88F8-C3DC8E406626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3CF18D8-7B63-4772-892E-5AA85ED10D84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3CF18D8-7B63-4772-892E-5AA85ED10D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>nuovo1.pdf</t>
-  </si>
-  <si>
-    <t>nuovo2.pdf</t>
-  </si>
-  <si>
-    <t>nuovo</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>old1.pdf</t>
-  </si>
-  <si>
-    <t>old2.pdf</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>old1</t>
+  </si>
+  <si>
+    <t>nuovo2</t>
+  </si>
+  <si>
+    <t>nuovo1</t>
+  </si>
+  <si>
+    <t>old2</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,18 +408,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RinominaPdf/rinomina.xlsx
+++ b/RinominaPdf/rinomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Haider Maqsood\Desktop\Software\RinominaPdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Haider Maqsood\Documents\GitHub\MAW\RinominaPdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2405B-E153-4B32-88F8-C3DC8E406626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08087A16-A9F0-4940-B255-CC8BD0DEDD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3CF18D8-7B63-4772-892E-5AA85ED10D84}"/>
+    <workbookView xWindow="28680" yWindow="2355" windowWidth="20730" windowHeight="11160" xr2:uid="{E3CF18D8-7B63-4772-892E-5AA85ED10D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>old1</t>
-  </si>
-  <si>
     <t>nuovo2</t>
   </si>
   <si>
     <t>nuovo1</t>
   </si>
   <si>
-    <t>old2</t>
+    <t>attuale</t>
+  </si>
+  <si>
+    <t>nuovo</t>
+  </si>
+  <si>
+    <t>nuovo2222</t>
+  </si>
+  <si>
+    <t>nuovo1111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA38C4-C3E3-41A4-8992-0E15B072624D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,29 +417,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>